--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业固定资产.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业固定资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1342 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.7072</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>101.8575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>346.16034</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.73148999999999</v>
+      </c>
       <c r="E2" t="n">
-        <v>107.4091</v>
+        <v>158.09246</v>
       </c>
       <c r="F2" t="n">
-        <v>23.0326</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>134.11567</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97.56267</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.92624</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99.94373</v>
+      </c>
       <c r="J2" t="n">
-        <v>99.90000000000001</v>
+        <v>462.52338</v>
       </c>
       <c r="K2" t="n">
-        <v>72.2985</v>
+        <v>112.22408</v>
       </c>
       <c r="L2" t="n">
-        <v>280.7644</v>
+        <v>513.5549999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>70.64960000000001</v>
+        <v>296.06534</v>
       </c>
       <c r="N2" t="n">
-        <v>301.7065</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>1366.70016</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2449.41358</v>
+      </c>
       <c r="P2" t="n">
-        <v>182.2146</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+        <v>126.97008</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>266.07753</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15.94987</v>
+      </c>
+      <c r="S2" t="n">
+        <v>60.20527</v>
+      </c>
       <c r="T2" t="n">
-        <v>139.8924</v>
+        <v>392.27339</v>
       </c>
       <c r="U2" t="n">
-        <v>693.6565000000001</v>
+        <v>907.33473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>116.6357</v>
+      </c>
+      <c r="C3" t="n">
+        <v>336.7364</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91.5093</v>
+      </c>
       <c r="E3" t="n">
-        <v>119.3005</v>
+        <v>211.0667</v>
       </c>
       <c r="F3" t="n">
-        <v>18.8411</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>143.9759</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124.0408</v>
+      </c>
+      <c r="H3" t="n">
+        <v>49.8635</v>
+      </c>
+      <c r="I3" t="n">
+        <v>114.6539</v>
+      </c>
+      <c r="J3" t="n">
+        <v>522.2366</v>
+      </c>
       <c r="K3" t="n">
-        <v>70.5038</v>
+        <v>129.9355</v>
       </c>
       <c r="L3" t="n">
-        <v>287.5165</v>
+        <v>533.7189</v>
       </c>
       <c r="M3" t="n">
-        <v>59.4189</v>
+        <v>295.0279</v>
       </c>
       <c r="N3" t="n">
-        <v>468.7925</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>1507.6134</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2767.7469</v>
+      </c>
       <c r="P3" t="n">
-        <v>170.4211</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>133.3922</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>311.2938</v>
+      </c>
+      <c r="R3" t="n">
+        <v>23.0763</v>
+      </c>
+      <c r="S3" t="n">
+        <v>54.8944</v>
+      </c>
+      <c r="T3" t="n">
+        <v>543.4654</v>
+      </c>
       <c r="U3" t="n">
-        <v>672.0196</v>
+        <v>961.4829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>152.25606</v>
+      </c>
+      <c r="C4" t="n">
+        <v>381.00625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.60517</v>
+      </c>
       <c r="E4" t="n">
-        <v>119.5215</v>
+        <v>243.58623</v>
       </c>
       <c r="F4" t="n">
-        <v>19.7127</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>188.14642</v>
+      </c>
+      <c r="G4" t="n">
+        <v>389.7986</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63.70368</v>
+      </c>
+      <c r="I4" t="n">
+        <v>137.56745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>542.80843</v>
+      </c>
       <c r="K4" t="n">
-        <v>59.275</v>
+        <v>97.22544000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>305.4925</v>
+        <v>547.48874</v>
       </c>
       <c r="M4" t="n">
-        <v>68.8533</v>
+        <v>431.81414</v>
       </c>
       <c r="N4" t="n">
-        <v>601.4765</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>1541.21794</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2988.5996</v>
+      </c>
       <c r="P4" t="n">
-        <v>180.5084</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>146.90282</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>410.52582</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24.84279</v>
+      </c>
+      <c r="S4" t="n">
+        <v>48.87565</v>
+      </c>
+      <c r="T4" t="n">
+        <v>509.06895</v>
+      </c>
       <c r="U4" t="n">
-        <v>676.0807</v>
+        <v>1054.86809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.79047</v>
+        <v>186.83679</v>
       </c>
       <c r="C5" t="n">
-        <v>175.16498</v>
+        <v>525.22253</v>
       </c>
       <c r="D5" t="n">
-        <v>38.30929</v>
+        <v>129.60809</v>
       </c>
       <c r="E5" t="n">
-        <v>136.78407</v>
+        <v>318.60475</v>
       </c>
       <c r="F5" t="n">
-        <v>34.47199</v>
+        <v>241.51895</v>
       </c>
       <c r="G5" t="n">
-        <v>78.74885</v>
+        <v>160.07077</v>
       </c>
       <c r="H5" t="n">
-        <v>15.12036</v>
+        <v>213.57054</v>
       </c>
       <c r="I5" t="n">
-        <v>44.18562</v>
+        <v>246.77301</v>
       </c>
       <c r="J5" t="n">
-        <v>222.37358</v>
+        <v>677.89499</v>
       </c>
       <c r="K5" t="n">
-        <v>62.5561</v>
+        <v>125.21174</v>
       </c>
       <c r="L5" t="n">
-        <v>348.50175</v>
+        <v>593.12409</v>
       </c>
       <c r="M5" t="n">
-        <v>63.72672</v>
+        <v>522.56316</v>
       </c>
       <c r="N5" t="n">
-        <v>639.6831100000001</v>
+        <v>1955.05788</v>
       </c>
       <c r="O5" t="n">
-        <v>966.6394299999999</v>
+        <v>3805.04648</v>
       </c>
       <c r="P5" t="n">
-        <v>88.73623000000001</v>
+        <v>200.29155</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.84222</v>
+        <v>716.53032</v>
       </c>
       <c r="R5" t="n">
-        <v>6.73568</v>
+        <v>26.89276</v>
       </c>
       <c r="S5" t="n">
-        <v>21.49085</v>
+        <v>56.6766</v>
       </c>
       <c r="T5" t="n">
-        <v>133.89901</v>
+        <v>663.0365</v>
       </c>
       <c r="U5" t="n">
-        <v>588.95739</v>
+        <v>1433.73017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105.28712</v>
+        <v>165.69696</v>
       </c>
       <c r="C6" t="n">
-        <v>319.0836</v>
+        <v>566.62891</v>
       </c>
       <c r="D6" t="n">
-        <v>53.85229</v>
+        <v>370.216</v>
       </c>
       <c r="E6" t="n">
-        <v>160.31199</v>
+        <v>367.49326</v>
       </c>
       <c r="F6" t="n">
-        <v>58.2698</v>
+        <v>258.57836</v>
       </c>
       <c r="G6" t="n">
-        <v>84.197</v>
+        <v>194.37181</v>
       </c>
       <c r="H6" t="n">
-        <v>35.60769</v>
+        <v>213.45673</v>
       </c>
       <c r="I6" t="n">
-        <v>67.73907</v>
+        <v>240.26353</v>
       </c>
       <c r="J6" t="n">
-        <v>354.18148</v>
+        <v>713.37855</v>
       </c>
       <c r="K6" t="n">
-        <v>94.17994</v>
+        <v>123.31629</v>
       </c>
       <c r="L6" t="n">
-        <v>485.4728</v>
+        <v>627.70868</v>
       </c>
       <c r="M6" t="n">
-        <v>114.34714</v>
+        <v>617.6679</v>
       </c>
       <c r="N6" t="n">
-        <v>968.18245</v>
+        <v>1951.98228</v>
       </c>
       <c r="O6" t="n">
-        <v>1526.56275</v>
+        <v>4238.02351</v>
       </c>
       <c r="P6" t="n">
-        <v>129.48637</v>
+        <v>213.87855</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.32686</v>
+        <v>726.04482</v>
       </c>
       <c r="R6" t="n">
-        <v>13.56017</v>
+        <v>33.025</v>
       </c>
       <c r="S6" t="n">
-        <v>22.95719</v>
+        <v>58.48704</v>
       </c>
       <c r="T6" t="n">
-        <v>228.6938</v>
+        <v>678.58664</v>
       </c>
       <c r="U6" t="n">
-        <v>842.7563699999999</v>
+        <v>1522.39076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.92706</v>
+        <v>180.4855</v>
       </c>
       <c r="C7" t="n">
-        <v>213.05233</v>
+        <v>585.3798</v>
       </c>
       <c r="D7" t="n">
-        <v>45.10567</v>
+        <v>128.5321</v>
       </c>
       <c r="E7" t="n">
-        <v>115.12208</v>
+        <v>425.0283</v>
       </c>
       <c r="F7" t="n">
-        <v>59.83345</v>
+        <v>259.7669</v>
       </c>
       <c r="G7" t="n">
-        <v>61.12101</v>
+        <v>176.1884</v>
       </c>
       <c r="H7" t="n">
-        <v>40.79398</v>
+        <v>93.3789</v>
       </c>
       <c r="I7" t="n">
-        <v>48.13455</v>
+        <v>257.3481</v>
       </c>
       <c r="J7" t="n">
-        <v>260.15873</v>
+        <v>737.2763</v>
       </c>
       <c r="K7" t="n">
-        <v>77.483</v>
+        <v>138.718</v>
       </c>
       <c r="L7" t="n">
-        <v>352.42413</v>
+        <v>603.2481</v>
       </c>
       <c r="M7" t="n">
-        <v>75.72745</v>
+        <v>646.0554</v>
       </c>
       <c r="N7" t="n">
-        <v>751.52692</v>
+        <v>1910.4065</v>
       </c>
       <c r="O7" t="n">
-        <v>1195.01907</v>
+        <v>3885.6548</v>
       </c>
       <c r="P7" t="n">
-        <v>78.84868</v>
+        <v>239.2268</v>
       </c>
       <c r="Q7" t="n">
-        <v>143.94091</v>
+        <v>630.1094000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>8.136520000000001</v>
+        <v>38.95</v>
       </c>
       <c r="S7" t="n">
-        <v>15.40888</v>
+        <v>65.6921</v>
       </c>
       <c r="T7" t="n">
-        <v>185.05244</v>
+        <v>627.5013</v>
       </c>
       <c r="U7" t="n">
-        <v>584.76295</v>
+        <v>1636.2381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.5027</v>
+        <v>176.8908</v>
       </c>
       <c r="C8" t="n">
-        <v>302.3352</v>
+        <v>668.0753</v>
       </c>
       <c r="D8" t="n">
-        <v>57.7641</v>
+        <v>127.4156</v>
       </c>
       <c r="E8" t="n">
-        <v>170.8495</v>
+        <v>475.6801</v>
       </c>
       <c r="F8" t="n">
-        <v>80.7607</v>
+        <v>249.2645</v>
       </c>
       <c r="G8" t="n">
-        <v>100.6603</v>
+        <v>181.7971</v>
       </c>
       <c r="H8" t="n">
-        <v>38.0532</v>
+        <v>78.9181</v>
       </c>
       <c r="I8" t="n">
-        <v>80.31570000000001</v>
+        <v>168.5329</v>
       </c>
       <c r="J8" t="n">
-        <v>346.9182</v>
+        <v>823.148</v>
       </c>
       <c r="K8" t="n">
-        <v>85.50320000000001</v>
+        <v>139.2093</v>
       </c>
       <c r="L8" t="n">
-        <v>558.651</v>
+        <v>594.2324</v>
       </c>
       <c r="M8" t="n">
-        <v>135.9896</v>
+        <v>738.9496</v>
       </c>
       <c r="N8" t="n">
-        <v>1161.1946</v>
+        <v>1967.3338</v>
       </c>
       <c r="O8" t="n">
-        <v>1786.2717</v>
+        <v>4074.8286</v>
       </c>
       <c r="P8" t="n">
-        <v>130.7783</v>
+        <v>260.3702</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.0597</v>
+        <v>549.1070999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>15.8494</v>
+        <v>47.3305</v>
       </c>
       <c r="S8" t="n">
-        <v>54.1803</v>
+        <v>63.7624</v>
       </c>
       <c r="T8" t="n">
-        <v>252.4673</v>
+        <v>599.8414</v>
       </c>
       <c r="U8" t="n">
-        <v>912.4479</v>
+        <v>1659.088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.50751</v>
+        <v>172.643</v>
       </c>
       <c r="C9" t="n">
-        <v>297.80066</v>
+        <v>624.451</v>
       </c>
       <c r="D9" t="n">
-        <v>63.54131</v>
+        <v>130.138</v>
       </c>
       <c r="E9" t="n">
-        <v>162.75901</v>
+        <v>591.188</v>
       </c>
       <c r="F9" t="n">
-        <v>105.08085</v>
+        <v>237.648</v>
       </c>
       <c r="G9" t="n">
-        <v>109.86997</v>
+        <v>200.648</v>
       </c>
       <c r="H9" t="n">
-        <v>38.65301</v>
+        <v>82.194</v>
       </c>
       <c r="I9" t="n">
-        <v>94.07889</v>
+        <v>164.58</v>
       </c>
       <c r="J9" t="n">
-        <v>399.19181</v>
+        <v>940.963</v>
       </c>
       <c r="K9" t="n">
-        <v>90.23090999999999</v>
+        <v>259.876</v>
       </c>
       <c r="L9" t="n">
-        <v>595.88759</v>
+        <v>606.952</v>
       </c>
       <c r="M9" t="n">
-        <v>176.06732</v>
+        <v>840.217</v>
       </c>
       <c r="N9" t="n">
-        <v>1341.52466</v>
+        <v>2062.613</v>
       </c>
       <c r="O9" t="n">
-        <v>2121.62157</v>
+        <v>4291.313</v>
       </c>
       <c r="P9" t="n">
-        <v>109.61606</v>
+        <v>310.209</v>
       </c>
       <c r="Q9" t="n">
-        <v>298.71334</v>
+        <v>576.478</v>
       </c>
       <c r="R9" t="n">
-        <v>16.84893</v>
+        <v>39.817</v>
       </c>
       <c r="S9" t="n">
-        <v>55.59264</v>
+        <v>69.37</v>
       </c>
       <c r="T9" t="n">
-        <v>319.37817</v>
+        <v>658.236</v>
       </c>
       <c r="U9" t="n">
-        <v>935.01994</v>
+        <v>1698.367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.4358</v>
+        <v>138.8</v>
       </c>
       <c r="C10" t="n">
-        <v>359.9974</v>
+        <v>550.7</v>
       </c>
       <c r="D10" t="n">
-        <v>84.9926</v>
+        <v>113</v>
       </c>
       <c r="E10" t="n">
-        <v>200.5416</v>
+        <v>594.8</v>
       </c>
       <c r="F10" t="n">
-        <v>155.6628</v>
+        <v>259.3</v>
       </c>
       <c r="G10" t="n">
-        <v>142.901</v>
+        <v>178.9</v>
       </c>
       <c r="H10" t="n">
-        <v>40.6523</v>
+        <v>59.9</v>
       </c>
       <c r="I10" t="n">
-        <v>152.0088</v>
+        <v>169.8</v>
       </c>
       <c r="J10" t="n">
-        <v>598.6633</v>
+        <v>769.1</v>
       </c>
       <c r="K10" t="n">
-        <v>116.3223</v>
+        <v>177.6</v>
       </c>
       <c r="L10" t="n">
-        <v>699.4252</v>
+        <v>555.8</v>
       </c>
       <c r="M10" t="n">
-        <v>272.9234</v>
+        <v>625.7</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.5574</v>
+        <v>1909.3</v>
       </c>
       <c r="O10" t="n">
-        <v>2755.3017</v>
+        <v>3984.4</v>
       </c>
       <c r="P10" t="n">
-        <v>145.9781</v>
+        <v>283.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>369.8854</v>
+        <v>575.8</v>
       </c>
       <c r="R10" t="n">
-        <v>43.5777</v>
+        <v>34.9</v>
       </c>
       <c r="S10" t="n">
-        <v>82.22580000000001</v>
+        <v>58.6</v>
       </c>
       <c r="T10" t="n">
-        <v>490.1132</v>
+        <v>627.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1167.2328</v>
+        <v>1530.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.94344</v>
+        <v>137.1307</v>
       </c>
       <c r="C11" t="n">
-        <v>305.69875</v>
+        <v>534.3895</v>
       </c>
       <c r="D11" t="n">
-        <v>65.37378</v>
+        <v>78.82080000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>142.44214</v>
+        <v>605.3669</v>
       </c>
       <c r="F11" t="n">
-        <v>121.35636</v>
+        <v>252.265</v>
       </c>
       <c r="G11" t="n">
-        <v>110.87634</v>
+        <v>199.739</v>
       </c>
       <c r="H11" t="n">
-        <v>30.15007</v>
+        <v>98.4799</v>
       </c>
       <c r="I11" t="n">
-        <v>88.34715</v>
+        <v>194.8296</v>
       </c>
       <c r="J11" t="n">
-        <v>409.06258</v>
+        <v>921.4494</v>
       </c>
       <c r="K11" t="n">
-        <v>90.63464999999999</v>
+        <v>202.0447</v>
       </c>
       <c r="L11" t="n">
-        <v>473.4162</v>
+        <v>542.0521</v>
       </c>
       <c r="M11" t="n">
-        <v>219.0896</v>
+        <v>533.3738</v>
       </c>
       <c r="N11" t="n">
-        <v>1256.09075</v>
+        <v>2601.4253</v>
       </c>
       <c r="O11" t="n">
-        <v>2132.10114</v>
+        <v>4976.1044</v>
       </c>
       <c r="P11" t="n">
-        <v>107.46362</v>
+        <v>274.2819</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.69008</v>
+        <v>649.5461</v>
       </c>
       <c r="R11" t="n">
-        <v>14.91793</v>
+        <v>52.1199</v>
       </c>
       <c r="S11" t="n">
-        <v>53.87131</v>
+        <v>58.8815</v>
       </c>
       <c r="T11" t="n">
-        <v>317.71996</v>
+        <v>586.7693</v>
       </c>
       <c r="U11" t="n">
-        <v>791.3958</v>
+        <v>1435.3618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.8575</v>
+        <v>142.9543</v>
       </c>
       <c r="C12" t="n">
-        <v>346.16034</v>
+        <v>612.202</v>
       </c>
       <c r="D12" t="n">
-        <v>82.73148999999999</v>
+        <v>74.53360000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>158.09246</v>
+        <v>647.8592</v>
       </c>
       <c r="F12" t="n">
-        <v>134.11567</v>
+        <v>330.654</v>
       </c>
       <c r="G12" t="n">
-        <v>97.56267</v>
+        <v>208.4007</v>
       </c>
       <c r="H12" t="n">
-        <v>33.92624</v>
+        <v>100.1189</v>
       </c>
       <c r="I12" t="n">
-        <v>99.94373</v>
+        <v>201.8876</v>
       </c>
       <c r="J12" t="n">
-        <v>462.52338</v>
+        <v>930.0176</v>
       </c>
       <c r="K12" t="n">
-        <v>112.22408</v>
+        <v>209.9573</v>
       </c>
       <c r="L12" t="n">
-        <v>513.5549999999999</v>
+        <v>521.2223</v>
       </c>
       <c r="M12" t="n">
-        <v>296.06534</v>
+        <v>537.3703</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.70016</v>
+        <v>1691.5157</v>
       </c>
       <c r="O12" t="n">
-        <v>2449.41358</v>
+        <v>3740.3063</v>
       </c>
       <c r="P12" t="n">
-        <v>126.97008</v>
+        <v>328.7941</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.07753</v>
+        <v>759.9647</v>
       </c>
       <c r="R12" t="n">
-        <v>15.94987</v>
+        <v>47.5363</v>
       </c>
       <c r="S12" t="n">
-        <v>60.20527</v>
+        <v>66.18640000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>392.27339</v>
+        <v>692.5083</v>
       </c>
       <c r="U12" t="n">
-        <v>907.33473</v>
+        <v>1525.1842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.6357</v>
+        <v>182.8128</v>
       </c>
       <c r="C13" t="n">
-        <v>336.7364</v>
+        <v>692.7285000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>91.5093</v>
+        <v>78.6007</v>
       </c>
       <c r="E13" t="n">
-        <v>211.0667</v>
+        <v>735.2717</v>
       </c>
       <c r="F13" t="n">
-        <v>143.9759</v>
+        <v>432.5786</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0408</v>
+        <v>230.5313</v>
       </c>
       <c r="H13" t="n">
-        <v>49.8635</v>
+        <v>115.2833</v>
       </c>
       <c r="I13" t="n">
-        <v>114.6539</v>
+        <v>226.654</v>
       </c>
       <c r="J13" t="n">
-        <v>522.2366</v>
+        <v>1039.5126</v>
       </c>
       <c r="K13" t="n">
-        <v>129.9355</v>
+        <v>296.265</v>
       </c>
       <c r="L13" t="n">
-        <v>533.7189</v>
+        <v>503.8296</v>
       </c>
       <c r="M13" t="n">
-        <v>295.0279</v>
+        <v>596.6015</v>
       </c>
       <c r="N13" t="n">
-        <v>1507.6134</v>
+        <v>1775.7721</v>
       </c>
       <c r="O13" t="n">
-        <v>2767.7469</v>
+        <v>4210.7812</v>
       </c>
       <c r="P13" t="n">
-        <v>133.3922</v>
+        <v>344.6914</v>
       </c>
       <c r="Q13" t="n">
-        <v>311.2938</v>
+        <v>826.5792</v>
       </c>
       <c r="R13" t="n">
-        <v>23.0763</v>
+        <v>56.003</v>
       </c>
       <c r="S13" t="n">
-        <v>54.8944</v>
+        <v>57.4675</v>
       </c>
       <c r="T13" t="n">
-        <v>543.4654</v>
+        <v>832.1382</v>
       </c>
       <c r="U13" t="n">
-        <v>961.4829</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>152.25606</v>
-      </c>
-      <c r="C14" t="n">
-        <v>381.00625</v>
-      </c>
-      <c r="D14" t="n">
-        <v>105.60517</v>
-      </c>
-      <c r="E14" t="n">
-        <v>243.58623</v>
-      </c>
-      <c r="F14" t="n">
-        <v>188.14642</v>
-      </c>
-      <c r="G14" t="n">
-        <v>389.7986</v>
-      </c>
-      <c r="H14" t="n">
-        <v>63.70368</v>
-      </c>
-      <c r="I14" t="n">
-        <v>137.56745</v>
-      </c>
-      <c r="J14" t="n">
-        <v>542.80843</v>
-      </c>
-      <c r="K14" t="n">
-        <v>97.22544000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>547.48874</v>
-      </c>
-      <c r="M14" t="n">
-        <v>431.81414</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1541.21794</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2988.5996</v>
-      </c>
-      <c r="P14" t="n">
-        <v>146.90282</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>410.52582</v>
-      </c>
-      <c r="R14" t="n">
-        <v>24.84279</v>
-      </c>
-      <c r="S14" t="n">
-        <v>48.87565</v>
-      </c>
-      <c r="T14" t="n">
-        <v>509.06895</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1054.86809</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>186.83679</v>
-      </c>
-      <c r="C15" t="n">
-        <v>525.22253</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129.60809</v>
-      </c>
-      <c r="E15" t="n">
-        <v>318.60475</v>
-      </c>
-      <c r="F15" t="n">
-        <v>241.51895</v>
-      </c>
-      <c r="G15" t="n">
-        <v>160.07077</v>
-      </c>
-      <c r="H15" t="n">
-        <v>213.57054</v>
-      </c>
-      <c r="I15" t="n">
-        <v>246.77301</v>
-      </c>
-      <c r="J15" t="n">
-        <v>677.89499</v>
-      </c>
-      <c r="K15" t="n">
-        <v>125.21174</v>
-      </c>
-      <c r="L15" t="n">
-        <v>593.12409</v>
-      </c>
-      <c r="M15" t="n">
-        <v>522.56316</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1955.05788</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3805.04648</v>
-      </c>
-      <c r="P15" t="n">
-        <v>200.29155</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>716.53032</v>
-      </c>
-      <c r="R15" t="n">
-        <v>26.89276</v>
-      </c>
-      <c r="S15" t="n">
-        <v>56.6766</v>
-      </c>
-      <c r="T15" t="n">
-        <v>663.0365</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1433.73017</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>165.69696</v>
-      </c>
-      <c r="C16" t="n">
-        <v>566.62891</v>
-      </c>
-      <c r="D16" t="n">
-        <v>370.216</v>
-      </c>
-      <c r="E16" t="n">
-        <v>367.49326</v>
-      </c>
-      <c r="F16" t="n">
-        <v>258.57836</v>
-      </c>
-      <c r="G16" t="n">
-        <v>194.37181</v>
-      </c>
-      <c r="H16" t="n">
-        <v>213.45673</v>
-      </c>
-      <c r="I16" t="n">
-        <v>240.26353</v>
-      </c>
-      <c r="J16" t="n">
-        <v>713.37855</v>
-      </c>
-      <c r="K16" t="n">
-        <v>123.31629</v>
-      </c>
-      <c r="L16" t="n">
-        <v>627.70868</v>
-      </c>
-      <c r="M16" t="n">
-        <v>617.6679</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1951.98228</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4238.02351</v>
-      </c>
-      <c r="P16" t="n">
-        <v>213.87855</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>726.04482</v>
-      </c>
-      <c r="R16" t="n">
-        <v>33.025</v>
-      </c>
-      <c r="S16" t="n">
-        <v>58.48704</v>
-      </c>
-      <c r="T16" t="n">
-        <v>678.58664</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1522.39076</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>180.4855</v>
-      </c>
-      <c r="C17" t="n">
-        <v>585.3798</v>
-      </c>
-      <c r="D17" t="n">
-        <v>128.5321</v>
-      </c>
-      <c r="E17" t="n">
-        <v>425.0283</v>
-      </c>
-      <c r="F17" t="n">
-        <v>259.7669</v>
-      </c>
-      <c r="G17" t="n">
-        <v>176.1884</v>
-      </c>
-      <c r="H17" t="n">
-        <v>93.3789</v>
-      </c>
-      <c r="I17" t="n">
-        <v>257.3481</v>
-      </c>
-      <c r="J17" t="n">
-        <v>737.2763</v>
-      </c>
-      <c r="K17" t="n">
-        <v>138.718</v>
-      </c>
-      <c r="L17" t="n">
-        <v>603.2481</v>
-      </c>
-      <c r="M17" t="n">
-        <v>646.0554</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1910.4065</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3885.6548</v>
-      </c>
-      <c r="P17" t="n">
-        <v>239.2268</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>630.1094000000001</v>
-      </c>
-      <c r="R17" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="S17" t="n">
-        <v>65.6921</v>
-      </c>
-      <c r="T17" t="n">
-        <v>627.5013</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1636.2381</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>176.8908</v>
-      </c>
-      <c r="C18" t="n">
-        <v>668.0753</v>
-      </c>
-      <c r="D18" t="n">
-        <v>127.4156</v>
-      </c>
-      <c r="E18" t="n">
-        <v>475.6801</v>
-      </c>
-      <c r="F18" t="n">
-        <v>249.2645</v>
-      </c>
-      <c r="G18" t="n">
-        <v>181.7971</v>
-      </c>
-      <c r="H18" t="n">
-        <v>78.9181</v>
-      </c>
-      <c r="I18" t="n">
-        <v>168.5329</v>
-      </c>
-      <c r="J18" t="n">
-        <v>823.148</v>
-      </c>
-      <c r="K18" t="n">
-        <v>139.2093</v>
-      </c>
-      <c r="L18" t="n">
-        <v>594.2324</v>
-      </c>
-      <c r="M18" t="n">
-        <v>738.9496</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1967.3338</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4074.8286</v>
-      </c>
-      <c r="P18" t="n">
-        <v>260.3702</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>549.1070999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>47.3305</v>
-      </c>
-      <c r="S18" t="n">
-        <v>63.7624</v>
-      </c>
-      <c r="T18" t="n">
-        <v>599.8414</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1659.088</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>172.643</v>
-      </c>
-      <c r="C19" t="n">
-        <v>624.451</v>
-      </c>
-      <c r="D19" t="n">
-        <v>130.138</v>
-      </c>
-      <c r="E19" t="n">
-        <v>591.188</v>
-      </c>
-      <c r="F19" t="n">
-        <v>237.648</v>
-      </c>
-      <c r="G19" t="n">
-        <v>200.648</v>
-      </c>
-      <c r="H19" t="n">
-        <v>82.194</v>
-      </c>
-      <c r="I19" t="n">
-        <v>164.58</v>
-      </c>
-      <c r="J19" t="n">
-        <v>940.963</v>
-      </c>
-      <c r="K19" t="n">
-        <v>259.876</v>
-      </c>
-      <c r="L19" t="n">
-        <v>606.952</v>
-      </c>
-      <c r="M19" t="n">
-        <v>840.217</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2062.613</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4291.313</v>
-      </c>
-      <c r="P19" t="n">
-        <v>310.209</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>576.478</v>
-      </c>
-      <c r="R19" t="n">
-        <v>39.817</v>
-      </c>
-      <c r="S19" t="n">
-        <v>69.37</v>
-      </c>
-      <c r="T19" t="n">
-        <v>658.236</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1698.367</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>550.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>113</v>
-      </c>
-      <c r="E20" t="n">
-        <v>594.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>169.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>769.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>177.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>555.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>625.7</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1909.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3984.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>283.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>575.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>627.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1530.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>137.1307</v>
-      </c>
-      <c r="C21" t="n">
-        <v>534.3895</v>
-      </c>
-      <c r="D21" t="n">
-        <v>78.82080000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>605.3669</v>
-      </c>
-      <c r="F21" t="n">
-        <v>252.265</v>
-      </c>
-      <c r="G21" t="n">
-        <v>199.739</v>
-      </c>
-      <c r="H21" t="n">
-        <v>98.4799</v>
-      </c>
-      <c r="I21" t="n">
-        <v>194.8296</v>
-      </c>
-      <c r="J21" t="n">
-        <v>921.4494</v>
-      </c>
-      <c r="K21" t="n">
-        <v>202.0447</v>
-      </c>
-      <c r="L21" t="n">
-        <v>542.0521</v>
-      </c>
-      <c r="M21" t="n">
-        <v>533.3738</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2601.4253</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4976.1044</v>
-      </c>
-      <c r="P21" t="n">
-        <v>274.2819</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>649.5461</v>
-      </c>
-      <c r="R21" t="n">
-        <v>52.1199</v>
-      </c>
-      <c r="S21" t="n">
-        <v>58.8815</v>
-      </c>
-      <c r="T21" t="n">
-        <v>586.7693</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1435.3618</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>142.9543</v>
-      </c>
-      <c r="C22" t="n">
-        <v>612.202</v>
-      </c>
-      <c r="D22" t="n">
-        <v>74.53360000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>647.8592</v>
-      </c>
-      <c r="F22" t="n">
-        <v>330.654</v>
-      </c>
-      <c r="G22" t="n">
-        <v>208.4007</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100.1189</v>
-      </c>
-      <c r="I22" t="n">
-        <v>201.8876</v>
-      </c>
-      <c r="J22" t="n">
-        <v>930.0176</v>
-      </c>
-      <c r="K22" t="n">
-        <v>209.9573</v>
-      </c>
-      <c r="L22" t="n">
-        <v>521.2223</v>
-      </c>
-      <c r="M22" t="n">
-        <v>537.3703</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1691.5157</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3740.3063</v>
-      </c>
-      <c r="P22" t="n">
-        <v>328.7941</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>759.9647</v>
-      </c>
-      <c r="R22" t="n">
-        <v>47.5363</v>
-      </c>
-      <c r="S22" t="n">
-        <v>66.18640000000001</v>
-      </c>
-      <c r="T22" t="n">
-        <v>692.5083</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1525.1842</v>
+        <v>1565.4947</v>
       </c>
     </row>
   </sheetData>
